--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value81.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value81.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.410215725729555</v>
+        <v>4.54861307144165</v>
       </c>
       <c r="B1">
-        <v>1.480033624281361</v>
+        <v>3.045896530151367</v>
       </c>
       <c r="C1">
-        <v>1.680493696442426</v>
+        <v>0.6381919384002686</v>
       </c>
       <c r="D1">
-        <v>2.655075259380314</v>
+        <v>0.6112232804298401</v>
       </c>
       <c r="E1">
-        <v>2.920839600185816</v>
+        <v>0.2427859902381897</v>
       </c>
     </row>
   </sheetData>
